--- a/biology/Zoologie/Coati_à_nez_blanc/Coati_à_nez_blanc.xlsx
+++ b/biology/Zoologie/Coati_à_nez_blanc/Coati_à_nez_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coati_%C3%A0_nez_blanc</t>
+          <t>Coati_à_nez_blanc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nasua narica
 Le coati à nez blanc ou coati brun est une espèce de mammifères omnivores de la famille des Procyonidae qui fait partie de l'ordre des carnivores (Carnivora). On rencontre ce coati principalement en Amérique centrale.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coati_%C3%A0_nez_blanc</t>
+          <t>Coati_à_nez_blanc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Nom scientifique valide : Nasua narica  (Linnaeus, 1766)[1],
-Noms vulgaires (vulgarisation scientifique) : Coati à nez blanc[2], Coati à museau blanc[3], Coati brun[4],[2],[3],
-Noms vernaculaires (langage courant), pouvant désigner éventuellement d'autres espèces : coati[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nom scientifique valide : Nasua narica  (Linnaeus, 1766),
+Noms vulgaires (vulgarisation scientifique) : Coati à nez blanc, Coati à museau blanc, Coati brun
+Noms vernaculaires (langage courant), pouvant désigner éventuellement d'autres espèces : coati.
 Synonymes scientifiques :
 Nasua nelsoni Merriam, 1901</t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Coati_%C3%A0_nez_blanc</t>
+          <t>Coati_à_nez_blanc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,12 +562,53 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Morphologie
-Le coati à nez blanc a le gabarit d'un gros chat ; il pèse 3,7 kg en moyenne. Il porte une longue queue annelée qui représente plus de la moitié de sa taille globale. La truffe de son long nez est mobile et lui sert à fouiller. Sa fourrure est assez épaisse et rêche au toucher, avec un sous-poil plus clair. Les marques blanc laiteux qui le distinguent des autres coatis sont présentes autour du nez, mais aussi des yeux (comme des lunettes). Par ailleurs, de petits cercles de même couleur marquent ses joues. Son poitrail est également clair, de même que son ventre. Le reste du corps est brun-roux sur le dessus, les pattes et les côtés étant noir mêlé de blanc. Ses yeux sont noirs et vifs. Il possède 4 canines longues et acérées. Ses pattes sont armées de griffes non rétractiles qui lui servent à grimper aux arbres et gratter le sol.
+          <t>Morphologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le coati à nez blanc a le gabarit d'un gros chat ; il pèse 3,7 kg en moyenne. Il porte une longue queue annelée qui représente plus de la moitié de sa taille globale. La truffe de son long nez est mobile et lui sert à fouiller. Sa fourrure est assez épaisse et rêche au toucher, avec un sous-poil plus clair. Les marques blanc laiteux qui le distinguent des autres coatis sont présentes autour du nez, mais aussi des yeux (comme des lunettes). Par ailleurs, de petits cercles de même couleur marquent ses joues. Son poitrail est également clair, de même que son ventre. Le reste du corps est brun-roux sur le dessus, les pattes et les côtés étant noir mêlé de blanc. Ses yeux sont noirs et vifs. Il possède 4 canines longues et acérées. Ses pattes sont armées de griffes non rétractiles qui lui servent à grimper aux arbres et gratter le sol.
 			Nasua narica adulte
 			idem
 			Face
-Anatomie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Coati_à_nez_blanc</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coati_%C3%A0_nez_blanc</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Anatomie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Crâne de Nasua narica
 			Mâchoire supérieure
 			Mâchoire inférieure
@@ -561,50 +616,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Coati_%C3%A0_nez_blanc</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Coati_%C3%A0_nez_blanc</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Comportement</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les coatis femelles vivent en groupe toute l'année tandis que les coatis mâles sont des solitaires. L'ensemble de l'espèce se retrouve tous les six mois pour la reproduction. Le coati pousse alors de longs cris stridents pour attirer son futur partenaire.
-Alimentation
-Il est omnivore, appréciant les petits vertébrés, les fruits, les charognes, les insectes et les œufs. Il peut facilement grimper aux arbres, où la queue est utilisée pour l'équilibre, mais il recherche le plus souvent sa nourriture sur le sol. Ses prédateurs sont les boas, les rapaces, les félins, et les martres à tête grise (tolomucos).
-Comportement social
-D'un naturel curieux, le coati approche des maisons et n'hésite pas à venir visiter les poubelles. Amical, il peut se laisser approcher, voire toucher. Toutefois, son audace lui vaut souvent d'être chassé par les habitants. Il peut être domestiqué facilement et on a vérifié expérimentalement qu'il était très intelligent.
-Reproduction
-Les portées, chez cette espèce, comptent en moyenne 4 ou 5 petits, qui naissent après environ 2 mois de gestation. Les petits pèsent en moyenne 140 g à la naissance. Ils atteindront leur taille adulte vers 14 ou 15 mois, mais ne seront mûrs sexuellement qu'à partir d'environ 2 ans. Le record actuel de longévité pour cette espèce a été atteint par un individu en captivité, qui a dépassé 26 ans[5].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Coati_%C3%A0_nez_blanc</t>
+          <t>Coati_à_nez_blanc</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,12 +637,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Classification</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite pour la première fois en 1766 par le naturaliste suédois Carl von Linné (1707-1778).
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les coatis femelles vivent en groupe toute l'année tandis que les coatis mâles sont des solitaires. L'ensemble de l'espèce se retrouve tous les six mois pour la reproduction. Le coati pousse alors de longs cris stridents pour attirer son futur partenaire.
 </t>
         </is>
       </c>
@@ -635,7 +655,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Coati_%C3%A0_nez_blanc</t>
+          <t>Coati_à_nez_blanc</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -650,12 +670,158 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est omnivore, appréciant les petits vertébrés, les fruits, les charognes, les insectes et les œufs. Il peut facilement grimper aux arbres, où la queue est utilisée pour l'équilibre, mais il recherche le plus souvent sa nourriture sur le sol. Ses prédateurs sont les boas, les rapaces, les félins, et les martres à tête grise (tolomucos).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Coati_à_nez_blanc</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coati_%C3%A0_nez_blanc</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Comportement social</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'un naturel curieux, le coati approche des maisons et n'hésite pas à venir visiter les poubelles. Amical, il peut se laisser approcher, voire toucher. Toutefois, son audace lui vaut souvent d'être chassé par les habitants. Il peut être domestiqué facilement et on a vérifié expérimentalement qu'il était très intelligent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Coati_à_nez_blanc</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coati_%C3%A0_nez_blanc</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les portées, chez cette espèce, comptent en moyenne 4 ou 5 petits, qui naissent après environ 2 mois de gestation. Les petits pèsent en moyenne 140 g à la naissance. Ils atteindront leur taille adulte vers 14 ou 15 mois, mais ne seront mûrs sexuellement qu'à partir d'environ 2 ans. Le record actuel de longévité pour cette espèce a été atteint par un individu en captivité, qui a dépassé 26 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Coati_à_nez_blanc</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coati_%C3%A0_nez_blanc</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite pour la première fois en 1766 par le naturaliste suédois Carl von Linné (1707-1778).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Coati_à_nez_blanc</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coati_%C3%A0_nez_blanc</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (31 mars 2015)[6] et Mammal Species of the World (version 3, 2005)  (31 mars 2015)[7], ce mammifère est représenté par 4 sous-espèces :
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (31 mars 2015) et Mammal Species of the World (version 3, 2005)  (31 mars 2015), ce mammifère est représenté par 4 sous-espèces :
 Nasua narica molaris Merriam, 1902 ;
 Nasua narica narica (Linnaeus, 1766) ;
 Nasua narica nelsoni Merriam, 1901 ;
